--- a/11_集計表.xlsx
+++ b/11_集計表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="市場調査" sheetId="1" r:id="rId1"/>
+    <sheet name="九九のしーと" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>市場調査アンケート</t>
     <rPh sb="0" eb="4">
@@ -159,6 +160,23 @@
     <t>明太子マヨ</t>
     <rPh sb="0" eb="3">
       <t>メンタイコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>九九</t>
+    <rPh sb="0" eb="2">
+      <t>クク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p.32 相対参照と絶対参照について</t>
+    <rPh sb="5" eb="9">
+      <t>ソウタイサンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ゼッタイサンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -167,10 +185,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0&quot;の段&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +233,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +259,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCEEAB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,14 +333,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -313,8 +353,25 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -639,82 +696,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>45130</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>1002</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>1223</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f>SUM(B6:C6)</f>
         <v>2225</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f>$D6/$D$13</f>
         <v>0.11216413772243787</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>138</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>166</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f t="shared" ref="D7:D12" si="0">SUM(B7:C7)</f>
         <v>304</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" ref="E7:E12" si="1">$D7/$D$13</f>
         <v>1.532489791803196E-2</v>
       </c>
@@ -723,20 +780,20 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>1494</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>1577</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>3071</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>0.15481171548117154</v>
       </c>
@@ -745,98 +802,98 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>3571</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>3746</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>7317</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f t="shared" si="1"/>
         <v>0.36885617784947322</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>1468</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>1094</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>2562</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>0.12915259363815093</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>1812</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>1927</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>3739</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>0.1884861622221102</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>427</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>192</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
         <v>3.1204315168624288E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <f>SUM(B6:B12)</f>
         <v>9912</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <f t="shared" ref="C13:E13" si="2">SUM(C6:C12)</f>
         <v>9925</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <f t="shared" si="2"/>
         <v>19837</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -892,4 +949,430 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="11" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15">
+        <v>7</v>
+      </c>
+      <c r="J2" s="15">
+        <v>8</v>
+      </c>
+      <c r="K2" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <f>$B3*C$2</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <f t="shared" ref="D3:K3" si="0">$B3*D$2</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H3" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K3" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:K11" si="1">$B4*C$2</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>